--- a/test1/threads_complete_analysis.xlsx
+++ b/test1/threads_complete_analysis.xlsx
@@ -1,21 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20703"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C584F0AD-672F-42A4-BA59-2B25A28D2BB3}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidyadharreddy\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179020"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$T$109:$T$127</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$T$10:$T$14</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$T$55:$T$67</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$T$71:$T$85</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$T$89:$T$105</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$T$132:$T$152</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$T$156:$T$178</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$T$182:$T$206</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$T$18:$T$24</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$T$211:$T$237</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$T$28:$T$36</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$T$40:$T$50</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$T$4:$T$6</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t xml:space="preserve">3rd subnet </t>
   </si>
@@ -124,12 +143,15 @@
   <si>
     <t>15th subnet</t>
   </si>
+  <si>
+    <t>Averages</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +197,5363 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>subnet 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$V$4:$V$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.14522393896948152</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.17722126219744302</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.33872306962741872</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$V$4:$V$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.14522393896948152</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.17722126219744302</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.33872306962741872</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$4:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.0052203379173701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4210559443410542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.186851388530526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E36-46A8-96EA-35C0F3283B58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>subnet 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$V$10:$V$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.12945899930123697</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.27701109744127067</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.38531340540825931</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.39815958106530053</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.4187620999109572</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$V$10:$V$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.12945899930123697</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.27701109744127067</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.38531340540825931</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.39815958106530053</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.4187620999109572</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$10:$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.4004091338105251</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.099685719138947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.684160922695787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.449494775978948</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.702290083236839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E36-46A8-96EA-35C0F3283B58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>subnet 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="78000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$V$18:$V$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.19742768198314878</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.18403112398808241</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.27716355903702911</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.42659175960180767</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.2012607154015482</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.6250180492031574</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.7858687710997736</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$V$18:$V$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0.19742768198314878</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.18403112398808241</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.27716355903702911</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.42659175960180767</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.2012607154015482</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.6250180492031574</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.7858687710997736</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$18:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.6963905033305249</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2159717961357881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.055932183022632</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.92477784658684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.566601464621048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.295713587815786</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.930555531857891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0E36-46A8-96EA-35C0F3283B58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>subnet 6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$V$28:$V$36</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.25794108621037037</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.19995879268040936</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.21935040114235385</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.36121702516093257</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.46240176553450951</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.1159093126792112</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.67396151294962503</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.56274618726393011</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.82279999828735095</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$V$28:$V$36</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.25794108621037037</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.19995879268040936</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.21935040114235385</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.36121702516093257</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.46240176553450951</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.1159093126792112</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.67396151294962503</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.56274618726393011</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.82279999828735095</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$28:$T$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.8013999713110547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4678552276210528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8374489608536848</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.31327631598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.982661473127896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.621151648063162</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.955548587605264</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.599814703594735</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.419507076863155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0E36-46A8-96EA-35C0F3283B58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>subnet 7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$V$40:$V$50</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.17185451254291495</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.14853985234473396</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.19934987932263432</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.21975312715494147</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.25409412513966129</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.53099569121249524</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.1047623560517166</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.5456031651968534</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.3981686102267539</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.1961187669629314</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.2889567850059018</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$V$40:$V$50</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.17185451254291495</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.14853985234473396</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.19934987932263432</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.21975312715494147</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.25409412513966129</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.53099569121249524</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.1047623560517166</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.5456031651968534</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.3981686102267539</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.1961187669629314</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.2889567850059018</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$40:$T$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.7318556183268417</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2378366244468424</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6555411690126309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.08843946457737</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.401480900603683</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.204678836626844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.015886959278948</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.578604158605266</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.260777034236845</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.137773702026323</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.580917647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0E36-46A8-96EA-35C0F3283B58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>subnet 8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$V$55:$V$67</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.20906279127272911</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.16649725286622005</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.19693052362850411</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.24993993766642578</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.25358287891916187</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.29962064565867225</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.63091662586947106</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.8637020827939104</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.9499582991096946</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.4433097215260631</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.97827677671620061</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.83789839941401834</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.85636857814558764</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$V$55:$V$67</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.20906279127272911</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.16649725286622005</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.19693052362850411</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.24993993766642578</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.25358287891916187</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.29962064565867225</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.63091662586947106</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.8637020827939104</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.9499582991096946</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.4433097215260631</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.97827677671620061</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.83789839941401834</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.85636857814558764</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$55:$T$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>9.0524469049347367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4263039137173692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7589664333826338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.228952621159999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.478852786515263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.882093391902105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.066858078305264</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.415801725884215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.08240310768948</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.404804832052626</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45.645639695615792</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.246594780373677</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.528101218368406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0E36-46A8-96EA-35C0F3283B58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>subnet 9</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$V$71:$V$85</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>0.23330679111131</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.16957148663777799</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.15999307381510111</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.18820722524825351</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.19042733648555574</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.22263853976204107</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.34370998691781696</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.37367704040966454</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.3200979542768922</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.7731696576417701</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.0684916571923559</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.86560090185269922</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.65318704577188269</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.73278826163353783</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.59452899199926856</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$V$71:$V$85</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>0.23330679111131</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.16957148663777799</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.15999307381510111</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.18820722524825351</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.19042733648555574</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.22263853976204107</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.34370998691781696</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.37367704040966454</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.3200979542768922</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.7731696576417701</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.0684916571923559</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.86560090185269922</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.65318704577188269</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.73278826163353783</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.59452899199926856</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$71:$T$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>9.0280209215042113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4569319298394721</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6971978011910522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.025719504608947</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.337756207109473</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.704586606275262</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.243345197878948</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.938418237773684</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.53144141247369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.885572671889477</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.254177582884211</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.548229832400004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.110448950210518</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.87894369426315</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53.019752627931581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0E36-46A8-96EA-35C0F3283B58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>subnet 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$V$89:$V$105</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="17"/>
+                  <c:pt idx="0">
+                    <c:v>0.21434452387094291</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.19740339748769803</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.22002672498222034</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.22235932079510892</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.2631347173982797</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.3017274456931186</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.37934304093010596</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.3488410332076497</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.50593051075944084</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.219551593246317</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.764460824398618</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.8060134467715478</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.9649919452074869</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.0810322478108834</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.6636146006391996</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>3.70745746632298</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>3.7113935439043635</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$V$89:$V$105</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="17"/>
+                  <c:pt idx="0">
+                    <c:v>0.21434452387094291</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.19740339748769803</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.22002672498222034</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.22235932079510892</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.2631347173982797</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.3017274456931186</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.37934304093010596</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.3488410332076497</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.50593051075944084</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.219551593246317</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.764460824398618</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.8060134467715478</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.9649919452074869</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.0810322478108834</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.6636146006391996</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>3.70745746632298</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>3.7113935439043635</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$89:$T$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>8.8100738901842099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1782380028778956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5962629694678956</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9364939363315763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.401194170902631</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.012376233163158</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.811909901473685</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.628790805205263</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.709268080552629</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.224286995431584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51.719228443342097</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58.073514574452645</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61.588965102257887</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64.091242815326311</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.705384618363141</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.238429922810525</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.151406777531562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0E36-46A8-96EA-35C0F3283B58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>subnet 11</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$V$109:$V$127</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="19"/>
+                  <c:pt idx="0">
+                    <c:v>0.14762796470140918</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.19558797763281682</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.19749698638942978</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.2903427830150957</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.25334959072455066</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.34335603750360105</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.27955899976550952</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.27020419786122502</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.38916029696571497</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.41955921898082255</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5.8580270656740199</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.9195879606670672</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.9909742371539476</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.7321901548639018</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.7143797473135129</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.5575064448407208</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2.8592639893868448</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.8999840356491089</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.9573721154889645</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$V$109:$V$127</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="19"/>
+                  <c:pt idx="0">
+                    <c:v>0.14762796470140918</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.19558797763281682</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.19749698638942978</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.2903427830150957</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.25334959072455066</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.34335603750360105</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.27955899976550952</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.27020419786122502</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.38916029696571497</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.41955921898082255</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5.8580270656740199</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.9195879606670672</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.9909742371539476</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.7321901548639018</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.7143797473135129</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.5575064448407208</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2.8592639893868448</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.8999840356491089</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.9573721154889645</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$109:$T$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>8.312541095833156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7767624729547382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1449595627031588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5967100168515795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9541044737178943</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.975550162162634</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.420929846005263</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.795327588136841</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.56672117583158</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.238689485357893</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.917696312857892</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.213532573294728</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53.461640056810531</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.419995307921056</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.40916725208946</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60.662694918494729</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62.33321201173684</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63.69664483321052</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64.591003932452637</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0E36-46A8-96EA-35C0F3283B58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>subnet 12</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$V$132:$V$152</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="21"/>
+                  <c:pt idx="0">
+                    <c:v>0.13825294492386481</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.18532685412092112</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.17110827430434841</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.17736165750364843</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.16987199421676105</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.23816296472753662</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.22384782898102928</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.20730221937195817</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.30813443299937293</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.37409913190244942</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.35731108906099335</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6.3017533079053933</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>5.4157745811551781</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4.4993139522717982</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>4.1367126899494009</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4.2386641817708153</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>4.1989436347699733</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>4.1793142619769084</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>4.1345156391072342</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>4.3743033309834631</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>4.4776301123118989</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$V$132:$V$152</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="21"/>
+                  <c:pt idx="0">
+                    <c:v>0.13825294492386481</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.18532685412092112</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.17110827430434841</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.17736165750364843</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.16987199421676105</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.23816296472753662</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.22384782898102928</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.20730221937195817</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.30813443299937293</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.37409913190244942</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.35731108906099335</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6.3017533079053933</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>5.4157745811551781</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4.4993139522717982</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>4.1367126899494009</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4.2386641817708153</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>4.1989436347699733</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>4.1793142619769084</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>4.1345156391072342</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>4.3743033309834631</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>4.4776301123118989</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$132:$T$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>8.4045573661200006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.96344277733421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4881947291521058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8138482319652613</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.169019460684211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.563733163632632</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.188532377526316</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.73852975745263</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.299428111631579</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.998339376957894</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.793077908057896</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.160259096257903</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.878229178878954</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.762041430710518</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67.068102748794743</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.185259517889463</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72.249401192942102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>74.02061617999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75.108767998863144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76.114982918689478</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>77.061967222326302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-0E36-46A8-96EA-35C0F3283B58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>subnet 13</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$V$156:$V$178</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="23"/>
+                  <c:pt idx="0">
+                    <c:v>0.22616108936074836</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.18737232600738596</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.15518282594108546</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.17183320399730725</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.16558191283289941</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.16642285010642555</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.22515699877423756</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.33579156929490311</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.30413646216131995</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.35992911252685933</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.3780300688610212</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.48796800371292609</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7.5044267315403639</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>7.2074249448035363</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.4554513884842732</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.1742484653903591</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2.1442696804827586</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.7155359631720166</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.1059854525845254</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.1664670741318761</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.86401992382352988</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.8041159794519066</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.82458879761593429</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$V$156:$V$178</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="23"/>
+                  <c:pt idx="0">
+                    <c:v>0.22616108936074836</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.18737232600738596</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.15518282594108546</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.17183320399730725</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.16558191283289941</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.16642285010642555</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.22515699877423756</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.33579156929490311</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.30413646216131995</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.35992911252685933</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.3780300688610212</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.48796800371292609</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7.5044267315403639</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>7.2074249448035363</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.4554513884842732</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.1742484653903591</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2.1442696804827586</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.7155359631720166</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.1059854525845254</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.1664670741318761</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.86401992382352988</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.8041159794519066</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.82458879761593429</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$156:$T$178</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>8.4561395770636842</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3320122769005263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6315053889642108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8748000671973699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.154081030889474</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.49076880906842</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.95148386453158</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.662295780678946</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.235669148589473</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.630529228010527</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.085629965126316</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.749532687026317</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.536027368747376</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.368870961036848</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.785832668599994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64.257863107473696</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66.517603874210522</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.071571199521046</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72.392150929105256</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74.641528857378916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76.231489244247385</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>77.240494376736834</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>78.045096522878936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0E36-46A8-96EA-35C0F3283B58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>subnet 14</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$V$182:$V$206</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="25"/>
+                  <c:pt idx="0">
+                    <c:v>0.26904093407385093</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.25476888321105279</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.29983032409213639</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.26144138987127596</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.22567437071531443</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.22035028787842612</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.22328740520734794</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.26605050731639501</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.18153464199519323</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.29813854283607111</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.21192481883514483</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.36256534949924196</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.44029797088110517</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>9.1765732686174175</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>6.6383934222007301</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5.1469376940681713</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>3.1208323632181663</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.2150695615152163</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.1748613993115491</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.8285717364619221</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1.7134770406227964</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1.6416008476583304</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1.7436064240843718</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1.6282699961542895</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1.6398542527377511</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$V$182:$V$206</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="25"/>
+                  <c:pt idx="0">
+                    <c:v>0.26904093407385093</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.25476888321105279</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.29983032409213639</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.26144138987127596</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.22567437071531443</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.22035028787842612</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.22328740520734794</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.26605050731639501</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.18153464199519323</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.29813854283607111</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.21192481883514483</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.36256534949924196</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.44029797088110517</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>9.1765732686174175</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>6.6383934222007301</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5.1469376940681713</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>3.1208323632181663</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.2150695615152163</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.1748613993115491</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.8285717364619221</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1.7134770406227964</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1.6416008476583304</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1.7436064240843718</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1.6282699961542895</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1.6398542527377511</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$182:$T$206</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>8.6854474419068435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0565635279610532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5466101420499996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9295985447757911</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.260924489868946</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.477604276252107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.881421252300001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.342109253542107</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.701192517031577</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.201911675305261</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.540560320805263</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.981091762842107</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.733285979215788</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.600942498752623</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.515504560963166</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73.540100938394744</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79.781481353868415</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84.371734819915758</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>86.501227604715794</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89.630933887057893</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>91.590918704089475</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>92.93022416768423</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.620990037894742</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>96.126145789478926</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>97.039210269336849</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-0E36-46A8-96EA-35C0F3283B58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>subnet 15</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$V$211:$V$237</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="27"/>
+                  <c:pt idx="0">
+                    <c:v>0.30629375631220085</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.26740568623943922</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.21850489684070015</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.23371633037401363</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.27807625798905666</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.22034276223353569</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.25049041356732871</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.26985050008565159</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.23317024099202904</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.2567119970760503</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.35325203054980603</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.32513200992030855</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.30455173932267982</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.41474979994579342</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>10.315677491783912</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>9.6074776113001743</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>6.6578087407532713</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>4.5643777980826501</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>4.0405951070780262</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3.879448791747405</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>3.4979128178896</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>3.2416959718135638</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.0748237082534642</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2.8244720191557438</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2.9446884553711214</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.0120201017246506</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.0525809015893839</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$V$211:$V$237</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="27"/>
+                  <c:pt idx="0">
+                    <c:v>0.30629375631220085</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.26740568623943922</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.21850489684070015</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.23371633037401363</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.27807625798905666</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.22034276223353569</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.25049041356732871</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.26985050008565159</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.23317024099202904</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.2567119970760503</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.35325203054980603</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.32513200992030855</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.30455173932267982</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.41474979994579342</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>10.315677491783912</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>9.6074776113001743</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>6.6578087407532713</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>4.5643777980826501</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>4.0405951070780262</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3.879448791747405</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>3.4979128178896</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>3.2416959718135638</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.0748237082534642</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2.8244720191557438</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2.9446884553711214</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.0120201017246506</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.0525809015893839</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$211:$T$237</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>8.5506594933963136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1331522966699996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4741603951715767</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8368363882321059</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.185526822742631</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.554289943286316</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.904120357415788</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.417310363357894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.992401323821053</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.558127478552633</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.153534826484211</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.511960155084212</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.107639024142102</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.875078627936844</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74.406421372778937</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78.529109678773679</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>88.86154206177369</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94.713651632031585</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98.584871229326311</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100.66117257815789</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>103.13584637642106</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>104.74253822623159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>106.21664178995263</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>107.90290900278947</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>109.15603071757896</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>110.09832817631577</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>111.00548145631581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-0E36-46A8-96EA-35C0F3283B58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="373736360"/>
+        <c:axId val="373739312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="373736360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373739312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="373739312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373736360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>subnet 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$4:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.0052203379173701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4210559443410542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.186851388530526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75FC-4707-BAAD-45D24589316A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>subnet 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$10:$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.4004091338105251</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.099685719138947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.684160922695787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.449494775978948</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.702290083236839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-75FC-4707-BAAD-45D24589316A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>subnet 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$18:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.6963905033305249</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2159717961357881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.055932183022632</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.92477784658684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.566601464621048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.295713587815786</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.930555531857891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-75FC-4707-BAAD-45D24589316A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>subnet 6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$28:$T$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.8013999713110547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4678552276210528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8374489608536848</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.31327631598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.982661473127896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.621151648063162</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.955548587605264</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.599814703594735</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.419507076863155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-75FC-4707-BAAD-45D24589316A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>subnet 7 </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$40:$T$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.7318556183268417</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2378366244468424</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6555411690126309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.08843946457737</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.401480900603683</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.204678836626844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.015886959278948</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.578604158605266</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.260777034236845</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.137773702026323</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.580917647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-75FC-4707-BAAD-45D24589316A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>subnet 8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$55:$T$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>9.0524469049347367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4263039137173692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7589664333826338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.228952621159999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.478852786515263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.882093391902105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.066858078305264</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.415801725884215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.08240310768948</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.404804832052626</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45.645639695615792</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.246594780373677</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.528101218368406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-75FC-4707-BAAD-45D24589316A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>subnet 9</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$71:$T$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>9.0280209215042113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4569319298394721</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6971978011910522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.025719504608947</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.337756207109473</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.704586606275262</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.243345197878948</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.938418237773684</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.53144141247369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.885572671889477</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.254177582884211</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.548229832400004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.110448950210518</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.87894369426315</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53.019752627931581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-75FC-4707-BAAD-45D24589316A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>subnet 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$89:$T$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>8.8100738901842099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1782380028778956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5962629694678956</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9364939363315763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.401194170902631</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.012376233163158</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.811909901473685</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.628790805205263</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.709268080552629</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.224286995431584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51.719228443342097</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58.073514574452645</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61.588965102257887</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64.091242815326311</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.705384618363141</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.238429922810525</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.151406777531562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-75FC-4707-BAAD-45D24589316A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>subnet 11</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$109:$T$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>8.312541095833156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7767624729547382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1449595627031588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5967100168515795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9541044737178943</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.975550162162634</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.420929846005263</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.795327588136841</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.56672117583158</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.238689485357893</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.917696312857892</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.213532573294728</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53.461640056810531</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.419995307921056</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.40916725208946</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60.662694918494729</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62.33321201173684</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63.69664483321052</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64.591003932452637</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-75FC-4707-BAAD-45D24589316A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>subnet 12</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$132:$T$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>8.4045573661200006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.96344277733421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4881947291521058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8138482319652613</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.169019460684211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.563733163632632</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.188532377526316</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.73852975745263</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.299428111631579</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.998339376957894</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.793077908057896</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.160259096257903</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.878229178878954</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.762041430710518</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67.068102748794743</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.185259517889463</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72.249401192942102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>74.02061617999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75.108767998863144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76.114982918689478</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>77.061967222326302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-75FC-4707-BAAD-45D24589316A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>subnet 13</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$156:$T$178</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>8.4561395770636842</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3320122769005263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6315053889642108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8748000671973699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.154081030889474</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.49076880906842</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.95148386453158</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.662295780678946</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.235669148589473</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.630529228010527</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.085629965126316</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.749532687026317</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.536027368747376</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.368870961036848</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.785832668599994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64.257863107473696</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66.517603874210522</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.071571199521046</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72.392150929105256</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74.641528857378916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76.231489244247385</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>77.240494376736834</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>78.045096522878936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-75FC-4707-BAAD-45D24589316A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>subnet 14</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$182:$T$206</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>8.6854474419068435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0565635279610532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5466101420499996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9295985447757911</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.260924489868946</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.477604276252107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.881421252300001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.342109253542107</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.701192517031577</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.201911675305261</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.540560320805263</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.981091762842107</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.733285979215788</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.600942498752623</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.515504560963166</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73.540100938394744</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79.781481353868415</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84.371734819915758</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>86.501227604715794</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89.630933887057893</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>91.590918704089475</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>92.93022416768423</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.620990037894742</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>96.126145789478926</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>97.039210269336849</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-75FC-4707-BAAD-45D24589316A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>subnet 15</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$211:$T$237</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>8.5506594933963136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1331522966699996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4741603951715767</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8368363882321059</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.185526822742631</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.554289943286316</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.904120357415788</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.417310363357894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.992401323821053</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.558127478552633</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.153534826484211</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.511960155084212</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.107639024142102</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.875078627936844</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74.406421372778937</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78.529109678773679</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>88.86154206177369</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94.713651632031585</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98.584871229326311</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100.66117257815789</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>103.13584637642106</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>104.74253822623159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>106.21664178995263</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>107.90290900278947</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>109.15603071757896</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>110.09832817631577</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>111.00548145631581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-75FC-4707-BAAD-45D24589316A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="461562024"/>
+        <c:axId val="461564648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="461562024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461564648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="461564648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461562024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E3F451-2369-4092-ACE0-C60632B1E7F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7AB51CA-B150-4E0F-A903-256733BEF1C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,24 +5852,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V237"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="T207" sqref="T207:V210"/>
+    <sheetView tabSelected="1" topLeftCell="L61" workbookViewId="0">
+      <selection activeCell="AE73" sqref="AE73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -558,12 +5937,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9.1455321311999995</v>
       </c>
@@ -634,7 +6013,7 @@
         <v>0.14522393896948152</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9.3460528850600006</v>
       </c>
@@ -693,19 +6072,19 @@
         <v>9.2655432224300007</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T5:T68" si="0">AVERAGE(A5:S5)</f>
+        <f t="shared" ref="T5:T67" si="0">AVERAGE(A5:S5)</f>
         <v>9.4210559443410542</v>
       </c>
       <c r="U5">
-        <f t="shared" ref="U5:U68" si="1">_xlfn.STDEV.P(A5:S5)</f>
+        <f t="shared" ref="U5:U67" si="1">_xlfn.STDEV.P(A5:S5)</f>
         <v>0.36769073662378821</v>
       </c>
       <c r="V5">
-        <f t="shared" ref="V5:V68" si="2">_xlfn.CONFIDENCE.T(0.05,U5,19)</f>
+        <f t="shared" ref="V5:V67" si="2">_xlfn.CONFIDENCE.T(0.05,U5,19)</f>
         <v>0.17722126219744302</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10.2021420002</v>
       </c>
@@ -776,17 +6155,17 @@
         <v>0.33872306962741872</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9.1614210605600004</v>
       </c>
@@ -857,7 +6236,7 @@
         <v>0.12945899930123697</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10.5549459457</v>
       </c>
@@ -928,7 +6307,7 @@
         <v>0.27701109744127067</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11.4091799259</v>
       </c>
@@ -999,7 +6378,7 @@
         <v>0.38531340540825931</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>16.763421058700001</v>
       </c>
@@ -1070,7 +6449,7 @@
         <v>0.39815958106530053</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>17.544976949700001</v>
       </c>
@@ -1141,17 +6520,17 @@
         <v>0.4187620999109572</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8.5866770744299998</v>
       </c>
@@ -1222,7 +6601,7 @@
         <v>0.19742768198314878</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9.2311038970899997</v>
       </c>
@@ -1293,7 +6672,7 @@
         <v>0.18403112398808241</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10.2887861729</v>
       </c>
@@ -1364,7 +6743,7 @@
         <v>0.27716355903702911</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12.7313768864</v>
       </c>
@@ -1435,7 +6814,7 @@
         <v>0.42659175960180767</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23.078927993800001</v>
       </c>
@@ -1506,7 +6885,7 @@
         <v>2.2012607154015482</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>25.728029012699999</v>
       </c>
@@ -1577,7 +6956,7 @@
         <v>2.6250180492031574</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>28.264367103600001</v>
       </c>
@@ -1648,17 +7027,17 @@
         <v>2.7858687710997736</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8.8139488697099999</v>
       </c>
@@ -1729,7 +7108,7 @@
         <v>0.25794108621037037</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9.2797768115999997</v>
       </c>
@@ -1800,7 +7179,7 @@
         <v>0.19995879268040936</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9.4977321624800002</v>
       </c>
@@ -1871,7 +7250,7 @@
         <v>0.21935040114235385</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9.7557599544499993</v>
       </c>
@@ -1942,7 +7321,7 @@
         <v>0.36121702516093257</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10.087366104099999</v>
       </c>
@@ -2013,7 +7392,7 @@
         <v>0.46240176553450951</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>16.297747135200002</v>
       </c>
@@ -2084,7 +7463,7 @@
         <v>2.1159093126792112</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32.196153879199997</v>
       </c>
@@ -2155,7 +7534,7 @@
         <v>0.67396151294962503</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33.295062780400002</v>
       </c>
@@ -2226,7 +7605,7 @@
         <v>0.56274618726393011</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33.890599012400003</v>
       </c>
@@ -2297,17 +7676,17 @@
         <v>0.82279999828735095</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8.5755128860499994</v>
       </c>
@@ -2378,7 +7757,7 @@
         <v>0.17185451254291495</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9.4091839790300007</v>
       </c>
@@ -2449,7 +7828,7 @@
         <v>0.14853985234473396</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10.2423598766</v>
       </c>
@@ -2520,7 +7899,7 @@
         <v>0.19934987932263432</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10.4865028858</v>
       </c>
@@ -2591,7 +7970,7 @@
         <v>0.21975312715494147</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10.789711952199999</v>
       </c>
@@ -2662,7 +8041,7 @@
         <v>0.25409412513966129</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11.4042918682</v>
       </c>
@@ -2733,7 +8112,7 @@
         <v>0.53099569121249524</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>29.133570909500001</v>
       </c>
@@ -2804,7 +8183,7 @@
         <v>3.1047623560517166</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>32.881587982200003</v>
       </c>
@@ -2875,7 +8254,7 @@
         <v>1.5456031651968534</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>34.030836820600001</v>
       </c>
@@ -2946,7 +8325,7 @@
         <v>1.3981686102267539</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>35.009513855000002</v>
       </c>
@@ -3017,7 +8396,7 @@
         <v>1.1961187669629314</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>35.465873956700001</v>
       </c>
@@ -3088,17 +8467,17 @@
         <v>1.2889567850059018</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>8.8453969955399998</v>
       </c>
@@ -3169,7 +8548,7 @@
         <v>0.20906279127272911</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>9.1015129089400002</v>
       </c>
@@ -3240,7 +8619,7 @@
         <v>0.16649725286622005</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>9.1238799095199994</v>
       </c>
@@ -3311,7 +8690,7 @@
         <v>0.19693052362850411</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10.123677968999999</v>
       </c>
@@ -3382,7 +8761,7 @@
         <v>0.24993993766642578</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10.118639946</v>
       </c>
@@ -3453,7 +8832,7 @@
         <v>0.25358287891916187</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10.760993003799999</v>
       </c>
@@ -3524,7 +8903,7 @@
         <v>0.29962064565867225</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11.240220069899999</v>
       </c>
@@ -3595,7 +8974,7 @@
         <v>0.63091662586947106</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>15.600693941099999</v>
       </c>
@@ -3666,7 +9045,7 @@
         <v>3.8637020827939104</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>38.725095033599999</v>
       </c>
@@ -3737,7 +9116,7 @@
         <v>1.9499582991096946</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>42.5939021111</v>
       </c>
@@ -3808,7 +9187,7 @@
         <v>1.4433097215260631</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>45.0223639011</v>
       </c>
@@ -3879,7 +9258,7 @@
         <v>0.97827677671620061</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>47.480495214500003</v>
       </c>
@@ -3950,7 +9329,7 @@
         <v>0.83789839941401834</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>48.423360824600003</v>
       </c>
@@ -4021,17 +9400,17 @@
         <v>0.85636857814558764</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8.2660298347500003</v>
       </c>
@@ -4090,19 +9469,19 @@
         <v>9.2302470207200003</v>
       </c>
       <c r="T71">
-        <f t="shared" ref="T69:T132" si="3">AVERAGE(A71:S71)</f>
+        <f t="shared" ref="T71:T132" si="3">AVERAGE(A71:S71)</f>
         <v>9.0280209215042113</v>
       </c>
       <c r="U71">
-        <f t="shared" ref="U69:U132" si="4">_xlfn.STDEV.P(A71:S71)</f>
+        <f t="shared" ref="U71:U132" si="4">_xlfn.STDEV.P(A71:S71)</f>
         <v>0.48405447980320032</v>
       </c>
       <c r="V71">
-        <f t="shared" ref="V69:V132" si="5">_xlfn.CONFIDENCE.T(0.05,U71,19)</f>
+        <f t="shared" ref="V71:V132" si="5">_xlfn.CONFIDENCE.T(0.05,U71,19)</f>
         <v>0.23330679111131</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>9.1530210971799999</v>
       </c>
@@ -4173,7 +9552,7 @@
         <v>0.16957148663777799</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>9.9388260841400005</v>
       </c>
@@ -4244,7 +9623,7 @@
         <v>0.15999307381510111</v>
       </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>10.4255979061</v>
       </c>
@@ -4315,7 +9694,7 @@
         <v>0.18820722524825351</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>10.4957170486</v>
       </c>
@@ -4386,7 +9765,7 @@
         <v>0.19042733648555574</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>10.6614279747</v>
       </c>
@@ -4457,7 +9836,7 @@
         <v>0.22263853976204107</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11.7190179825</v>
       </c>
@@ -4528,7 +9907,7 @@
         <v>0.34370998691781696</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>11.958860874200001</v>
       </c>
@@ -4599,7 +9978,7 @@
         <v>0.37367704040966454</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>35.1388549805</v>
       </c>
@@ -4670,7 +10049,7 @@
         <v>3.3200979542768922</v>
       </c>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>37.556492090200003</v>
       </c>
@@ -4741,7 +10120,7 @@
         <v>1.7731696576417701</v>
       </c>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>44.6613090038</v>
       </c>
@@ -4812,7 +10191,7 @@
         <v>1.0684916571923559</v>
       </c>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>47.689983844799997</v>
       </c>
@@ -4883,7 +10262,7 @@
         <v>0.86560090185269922</v>
       </c>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>50.965515136699999</v>
       </c>
@@ -4954,7 +10333,7 @@
         <v>0.65318704577188269</v>
       </c>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>51.251340866100001</v>
       </c>
@@ -5025,7 +10404,7 @@
         <v>0.73278826163353783</v>
       </c>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>52.468697071100003</v>
       </c>
@@ -5096,17 +10475,17 @@
         <v>0.59452899199926856</v>
       </c>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8.6477210521700005</v>
       </c>
@@ -5177,7 +10556,7 @@
         <v>0.21434452387094291</v>
       </c>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8.8498549461400007</v>
       </c>
@@ -5248,7 +10627,7 @@
         <v>0.19740339748769803</v>
       </c>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>9.0063738822899992</v>
       </c>
@@ -5319,7 +10698,7 @@
         <v>0.22002672498222034</v>
       </c>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>9.0717170238500007</v>
       </c>
@@ -5390,7 +10769,7 @@
         <v>0.22235932079510892</v>
       </c>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9.1348359584800001</v>
       </c>
@@ -5461,7 +10840,7 @@
         <v>0.2631347173982797</v>
       </c>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>10.286273956300001</v>
       </c>
@@ -5532,7 +10911,7 @@
         <v>0.3017274456931186</v>
       </c>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>11.021655082700001</v>
       </c>
@@ -5603,7 +10982,7 @@
         <v>0.37934304093010596</v>
       </c>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>12.193732023200001</v>
       </c>
@@ -5674,7 +11053,7 @@
         <v>0.3488410332076497</v>
       </c>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>14.2736048698</v>
       </c>
@@ -5745,7 +11124,7 @@
         <v>0.50593051075944084</v>
       </c>
     </row>
-    <row r="98" spans="1:22">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>38.3780519962</v>
       </c>
@@ -5816,7 +11195,7 @@
         <v>4.219551593246317</v>
       </c>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>40.617648840000001</v>
       </c>
@@ -5887,7 +11266,7 @@
         <v>3.764460824398618</v>
       </c>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>55.324445009199998</v>
       </c>
@@ -5958,7 +11337,7 @@
         <v>2.8060134467715478</v>
       </c>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>55.766871929200001</v>
       </c>
@@ -6029,7 +11408,7 @@
         <v>2.9649919452074869</v>
       </c>
     </row>
-    <row r="102" spans="1:22">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>62.093946933700003</v>
       </c>
@@ -6100,7 +11479,7 @@
         <v>3.0810322478108834</v>
       </c>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>63.180401086800003</v>
       </c>
@@ -6171,7 +11550,7 @@
         <v>3.6636146006391996</v>
       </c>
     </row>
-    <row r="104" spans="1:22">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>64.705157995199997</v>
       </c>
@@ -6242,7 +11621,7 @@
         <v>3.70745746632298</v>
       </c>
     </row>
-    <row r="105" spans="1:22">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>65.947499990500006</v>
       </c>
@@ -6313,17 +11692,17 @@
         <v>3.7113935439043635</v>
       </c>
     </row>
-    <row r="107" spans="1:22">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:22">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:22">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>8.5460879802700003</v>
       </c>
@@ -6394,7 +11773,7 @@
         <v>0.14762796470140918</v>
       </c>
     </row>
-    <row r="110" spans="1:22">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>9.2219460010500001</v>
       </c>
@@ -6465,7 +11844,7 @@
         <v>0.19558797763281682</v>
       </c>
     </row>
-    <row r="111" spans="1:22">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>10.005681037900001</v>
       </c>
@@ -6536,7 +11915,7 @@
         <v>0.19749698638942978</v>
       </c>
     </row>
-    <row r="112" spans="1:22">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>10.2156300545</v>
       </c>
@@ -6607,7 +11986,7 @@
         <v>0.2903427830150957</v>
       </c>
     </row>
-    <row r="113" spans="1:22">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>10.3770930767</v>
       </c>
@@ -6678,7 +12057,7 @@
         <v>0.25334959072455066</v>
       </c>
     </row>
-    <row r="114" spans="1:22">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>10.5951118469</v>
       </c>
@@ -6749,7 +12128,7 @@
         <v>0.34335603750360105</v>
       </c>
     </row>
-    <row r="115" spans="1:22">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>11.4522278309</v>
       </c>
@@ -6820,7 +12199,7 @@
         <v>0.27955899976550952</v>
       </c>
     </row>
-    <row r="116" spans="1:22">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>12.1698510647</v>
       </c>
@@ -6891,7 +12270,7 @@
         <v>0.27020419786122502</v>
       </c>
     </row>
-    <row r="117" spans="1:22">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>12.670024871800001</v>
       </c>
@@ -6962,7 +12341,7 @@
         <v>0.38916029696571497</v>
       </c>
     </row>
-    <row r="118" spans="1:22">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>14.499886035899999</v>
       </c>
@@ -7033,7 +12412,7 @@
         <v>0.41955921898082255</v>
       </c>
     </row>
-    <row r="119" spans="1:22">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>34.544704198799998</v>
       </c>
@@ -7104,7 +12483,7 @@
         <v>5.8580270656740199</v>
       </c>
     </row>
-    <row r="120" spans="1:22">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>46.851155996300001</v>
       </c>
@@ -7175,7 +12554,7 @@
         <v>3.9195879606670672</v>
       </c>
     </row>
-    <row r="121" spans="1:22">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>52.144430160500001</v>
       </c>
@@ -7246,7 +12625,7 @@
         <v>1.9909742371539476</v>
       </c>
     </row>
-    <row r="122" spans="1:22">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>57.331375122099999</v>
       </c>
@@ -7317,7 +12696,7 @@
         <v>1.7321901548639018</v>
       </c>
     </row>
-    <row r="123" spans="1:22">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>58.328529834699999</v>
       </c>
@@ -7388,7 +12767,7 @@
         <v>1.7143797473135129</v>
       </c>
     </row>
-    <row r="124" spans="1:22">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>60.273268938100003</v>
       </c>
@@ -7459,7 +12838,7 @@
         <v>2.5575064448407208</v>
       </c>
     </row>
-    <row r="125" spans="1:22">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>61.355021953600001</v>
       </c>
@@ -7530,7 +12909,7 @@
         <v>2.8592639893868448</v>
       </c>
     </row>
-    <row r="126" spans="1:22">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>62.453692913099999</v>
       </c>
@@ -7601,7 +12980,7 @@
         <v>2.8999840356491089</v>
       </c>
     </row>
-    <row r="127" spans="1:22">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>63.124955892599999</v>
       </c>
@@ -7672,17 +13051,17 @@
         <v>2.9573721154889645</v>
       </c>
     </row>
-    <row r="130" spans="1:22">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:22">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:22">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>8.5688450336499997</v>
       </c>
@@ -7753,7 +13132,7 @@
         <v>0.13825294492386481</v>
       </c>
     </row>
-    <row r="133" spans="1:22">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>8.7166748046899993</v>
       </c>
@@ -7824,7 +13203,7 @@
         <v>0.18532685412092112</v>
       </c>
     </row>
-    <row r="134" spans="1:22">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>8.7715561389900003</v>
       </c>
@@ -7895,7 +13274,7 @@
         <v>0.17110827430434841</v>
       </c>
     </row>
-    <row r="135" spans="1:22">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>9.4926381111100007</v>
       </c>
@@ -7966,7 +13345,7 @@
         <v>0.17736165750364843</v>
       </c>
     </row>
-    <row r="136" spans="1:22">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>10.4219560623</v>
       </c>
@@ -8037,7 +13416,7 @@
         <v>0.16987199421676105</v>
       </c>
     </row>
-    <row r="137" spans="1:22">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>10.5797739029</v>
       </c>
@@ -8108,7 +13487,7 @@
         <v>0.23816296472753662</v>
       </c>
     </row>
-    <row r="138" spans="1:22">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>11.138700008400001</v>
       </c>
@@ -8179,7 +13558,7 @@
         <v>0.22384782898102928</v>
       </c>
     </row>
-    <row r="139" spans="1:22">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>12.5573232174</v>
       </c>
@@ -8250,7 +13629,7 @@
         <v>0.20730221937195817</v>
       </c>
     </row>
-    <row r="140" spans="1:22">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>12.727966070200001</v>
       </c>
@@ -8321,7 +13700,7 @@
         <v>0.30813443299937293</v>
       </c>
     </row>
-    <row r="141" spans="1:22">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>13.115328788799999</v>
       </c>
@@ -8392,7 +13771,7 @@
         <v>0.37409913190244942</v>
       </c>
     </row>
-    <row r="142" spans="1:22">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>13.974709987600001</v>
       </c>
@@ -8463,7 +13842,7 @@
         <v>0.35731108906099335</v>
       </c>
     </row>
-    <row r="143" spans="1:22">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>51.595204830199997</v>
       </c>
@@ -8534,7 +13913,7 @@
         <v>6.3017533079053933</v>
       </c>
     </row>
-    <row r="144" spans="1:22">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>65.108920097400002</v>
       </c>
@@ -8605,7 +13984,7 @@
         <v>5.4157745811551781</v>
       </c>
     </row>
-    <row r="145" spans="1:22">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>66.913918018299995</v>
       </c>
@@ -8676,7 +14055,7 @@
         <v>4.4993139522717982</v>
       </c>
     </row>
-    <row r="146" spans="1:22">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>68.150614023200006</v>
       </c>
@@ -8747,7 +14126,7 @@
         <v>4.1367126899494009</v>
       </c>
     </row>
-    <row r="147" spans="1:22">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>72.350669860799997</v>
       </c>
@@ -8818,7 +14197,7 @@
         <v>4.2386641817708153</v>
       </c>
     </row>
-    <row r="148" spans="1:22">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>72.413537025500005</v>
       </c>
@@ -8889,7 +14268,7 @@
         <v>4.1989436347699733</v>
       </c>
     </row>
-    <row r="149" spans="1:22">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>72.9985499382</v>
       </c>
@@ -8960,7 +14339,7 @@
         <v>4.1793142619769084</v>
       </c>
     </row>
-    <row r="150" spans="1:22">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>73.434741973900003</v>
       </c>
@@ -9031,7 +14410,7 @@
         <v>4.1345156391072342</v>
       </c>
     </row>
-    <row r="151" spans="1:22">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>73.682827949499995</v>
       </c>
@@ -9102,7 +14481,7 @@
         <v>4.3743033309834631</v>
       </c>
     </row>
-    <row r="152" spans="1:22">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>74.110655069399996</v>
       </c>
@@ -9173,17 +14552,17 @@
         <v>4.4776301123118989</v>
       </c>
     </row>
-    <row r="154" spans="1:22">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="155" spans="1:22">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:22">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>9.1304020881699994</v>
       </c>
@@ -9254,7 +14633,7 @@
         <v>0.22616108936074836</v>
       </c>
     </row>
-    <row r="157" spans="1:22">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>9.2162401676200005</v>
       </c>
@@ -9325,7 +14704,7 @@
         <v>0.18737232600738596</v>
       </c>
     </row>
-    <row r="158" spans="1:22">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>9.3494291305499999</v>
       </c>
@@ -9396,7 +14775,7 @@
         <v>0.15518282594108546</v>
       </c>
     </row>
-    <row r="159" spans="1:22">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>9.4837000370000002</v>
       </c>
@@ -9467,7 +14846,7 @@
         <v>0.17183320399730725</v>
       </c>
     </row>
-    <row r="160" spans="1:22">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>9.7594621181499992</v>
       </c>
@@ -9538,7 +14917,7 @@
         <v>0.16558191283289941</v>
       </c>
     </row>
-    <row r="161" spans="1:22">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>10.1050930023</v>
       </c>
@@ -9609,7 +14988,7 @@
         <v>0.16642285010642555</v>
       </c>
     </row>
-    <row r="162" spans="1:22">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>11.7169830799</v>
       </c>
@@ -9680,7 +15059,7 @@
         <v>0.22515699877423756</v>
       </c>
     </row>
-    <row r="163" spans="1:22">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>12.571378946299999</v>
       </c>
@@ -9751,7 +15130,7 @@
         <v>0.33579156929490311</v>
       </c>
     </row>
-    <row r="164" spans="1:22">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>12.9086449146</v>
       </c>
@@ -9822,7 +15201,7 @@
         <v>0.30413646216131995</v>
       </c>
     </row>
-    <row r="165" spans="1:22">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>13.392248153700001</v>
       </c>
@@ -9893,7 +15272,7 @@
         <v>0.35992911252685933</v>
       </c>
     </row>
-    <row r="166" spans="1:22">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>13.3172810078</v>
       </c>
@@ -9964,7 +15343,7 @@
         <v>0.3780300688610212</v>
       </c>
     </row>
-    <row r="167" spans="1:22">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>15.108260870000001</v>
       </c>
@@ -10035,7 +15414,7 @@
         <v>0.48796800371292609</v>
       </c>
     </row>
-    <row r="168" spans="1:22">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>50.150684118299999</v>
       </c>
@@ -10106,7 +15485,7 @@
         <v>7.5044267315403639</v>
       </c>
     </row>
-    <row r="169" spans="1:22">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>56.610072135899998</v>
       </c>
@@ -10177,7 +15556,7 @@
         <v>7.2074249448035363</v>
       </c>
     </row>
-    <row r="170" spans="1:22">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>61.341830015200003</v>
       </c>
@@ -10248,7 +15627,7 @@
         <v>3.4554513884842732</v>
       </c>
     </row>
-    <row r="171" spans="1:22">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>69.055763006199996</v>
       </c>
@@ -10319,7 +15698,7 @@
         <v>2.1742484653903591</v>
       </c>
     </row>
-    <row r="172" spans="1:22">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>69.421605110200005</v>
       </c>
@@ -10390,7 +15769,7 @@
         <v>2.1442696804827586</v>
       </c>
     </row>
-    <row r="173" spans="1:22">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>73.294297933600006</v>
       </c>
@@ -10461,7 +15840,7 @@
         <v>1.7155359631720166</v>
       </c>
     </row>
-    <row r="174" spans="1:22">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>73.666841983799998</v>
       </c>
@@ -10532,7 +15911,7 @@
         <v>1.1059854525845254</v>
       </c>
     </row>
-    <row r="175" spans="1:22">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>74.656321048699994</v>
       </c>
@@ -10603,7 +15982,7 @@
         <v>1.1664670741318761</v>
       </c>
     </row>
-    <row r="176" spans="1:22">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>75.495742082600003</v>
       </c>
@@ -10674,7 +16053,7 @@
         <v>0.86401992382352988</v>
       </c>
     </row>
-    <row r="177" spans="1:22">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>76.342702150299999</v>
       </c>
@@ -10745,7 +16124,7 @@
         <v>0.8041159794519066</v>
       </c>
     </row>
-    <row r="178" spans="1:22">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>77.134431839000001</v>
       </c>
@@ -10816,17 +16195,17 @@
         <v>0.82458879761593429</v>
       </c>
     </row>
-    <row r="180" spans="1:22">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="181" spans="1:22">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:22">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>9.08072495461</v>
       </c>
@@ -10897,7 +16276,7 @@
         <v>0.26904093407385093</v>
       </c>
     </row>
-    <row r="183" spans="1:22">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>9.7147068977399993</v>
       </c>
@@ -10968,7 +16347,7 @@
         <v>0.25476888321105279</v>
       </c>
     </row>
-    <row r="184" spans="1:22">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>9.8061110973400005</v>
       </c>
@@ -11039,7 +16418,7 @@
         <v>0.29983032409213639</v>
       </c>
     </row>
-    <row r="185" spans="1:22">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>10.3922469616</v>
       </c>
@@ -11110,7 +16489,7 @@
         <v>0.26144138987127596</v>
       </c>
     </row>
-    <row r="186" spans="1:22">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>10.3624181747</v>
       </c>
@@ -11181,7 +16560,7 @@
         <v>0.22567437071531443</v>
       </c>
     </row>
-    <row r="187" spans="1:22">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>10.3833680153</v>
       </c>
@@ -11252,7 +16631,7 @@
         <v>0.22035028787842612</v>
       </c>
     </row>
-    <row r="188" spans="1:22">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>10.9794487953</v>
       </c>
@@ -11323,7 +16702,7 @@
         <v>0.22328740520734794</v>
       </c>
     </row>
-    <row r="189" spans="1:22">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>11.135699987400001</v>
       </c>
@@ -11394,7 +16773,7 @@
         <v>0.26605050731639501</v>
       </c>
     </row>
-    <row r="190" spans="1:22">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>11.3842689991</v>
       </c>
@@ -11465,7 +16844,7 @@
         <v>0.18153464199519323</v>
       </c>
     </row>
-    <row r="191" spans="1:22">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>11.4138360023</v>
       </c>
@@ -11536,7 +16915,7 @@
         <v>0.29813854283607111</v>
       </c>
     </row>
-    <row r="192" spans="1:22">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>11.969043016400001</v>
       </c>
@@ -11607,7 +16986,7 @@
         <v>0.21192481883514483</v>
       </c>
     </row>
-    <row r="193" spans="1:22">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>11.9373300076</v>
       </c>
@@ -11678,7 +17057,7 @@
         <v>0.36256534949924196</v>
       </c>
     </row>
-    <row r="194" spans="1:22">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>12.7284798622</v>
       </c>
@@ -11749,7 +17128,7 @@
         <v>0.44029797088110517</v>
       </c>
     </row>
-    <row r="195" spans="1:22">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>64.200014114400005</v>
       </c>
@@ -11820,7 +17199,7 @@
         <v>9.1765732686174175</v>
       </c>
     </row>
-    <row r="196" spans="1:22">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>74.741686821000002</v>
       </c>
@@ -11891,7 +17270,7 @@
         <v>6.6383934222007301</v>
       </c>
     </row>
-    <row r="197" spans="1:22">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>78.387490034099997</v>
       </c>
@@ -11962,7 +17341,7 @@
         <v>5.1469376940681713</v>
       </c>
     </row>
-    <row r="198" spans="1:22">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>80.070528984099994</v>
       </c>
@@ -12033,7 +17412,7 @@
         <v>3.1208323632181663</v>
       </c>
     </row>
-    <row r="199" spans="1:22">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>80.591917038000005</v>
       </c>
@@ -12104,7 +17483,7 @@
         <v>2.2150695615152163</v>
       </c>
     </row>
-    <row r="200" spans="1:22">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>82.023925066000004</v>
       </c>
@@ -12175,7 +17554,7 @@
         <v>2.1748613993115491</v>
       </c>
     </row>
-    <row r="201" spans="1:22">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>87.391041994099993</v>
       </c>
@@ -12246,7 +17625,7 @@
         <v>1.8285717364619221</v>
       </c>
     </row>
-    <row r="202" spans="1:22">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>89.219520091999996</v>
       </c>
@@ -12317,7 +17696,7 @@
         <v>1.7134770406227964</v>
       </c>
     </row>
-    <row r="203" spans="1:22">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>90.284821033499995</v>
       </c>
@@ -12388,7 +17767,7 @@
         <v>1.6416008476583304</v>
       </c>
     </row>
-    <row r="204" spans="1:22">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>90.9734740257</v>
       </c>
@@ -12459,7 +17838,7 @@
         <v>1.7436064240843718</v>
       </c>
     </row>
-    <row r="205" spans="1:22">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>92.549494981799995</v>
       </c>
@@ -12530,7 +17909,7 @@
         <v>1.6282699961542895</v>
       </c>
     </row>
-    <row r="206" spans="1:22">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>93.172468185400007</v>
       </c>
@@ -12601,17 +17980,17 @@
         <v>1.6398542527377511</v>
       </c>
     </row>
-    <row r="209" spans="1:22">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="210" spans="1:22">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:22">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>7.8789420127899996</v>
       </c>
@@ -12682,7 +18061,7 @@
         <v>0.30629375631220085</v>
       </c>
     </row>
-    <row r="212" spans="1:22">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>8.4072499275200006</v>
       </c>
@@ -12753,7 +18132,7 @@
         <v>0.26740568623943922</v>
       </c>
     </row>
-    <row r="213" spans="1:22">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>8.94313621521</v>
       </c>
@@ -12824,7 +18203,7 @@
         <v>0.21850489684070015</v>
       </c>
     </row>
-    <row r="214" spans="1:22">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>9.9790399074600007</v>
       </c>
@@ -12895,7 +18274,7 @@
         <v>0.23371633037401363</v>
       </c>
     </row>
-    <row r="215" spans="1:22">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>10.072496891</v>
       </c>
@@ -12966,7 +18345,7 @@
         <v>0.27807625798905666</v>
       </c>
     </row>
-    <row r="216" spans="1:22">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>10.3670220375</v>
       </c>
@@ -13037,7 +18416,7 @@
         <v>0.22034276223353569</v>
       </c>
     </row>
-    <row r="217" spans="1:22">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>10.4184110165</v>
       </c>
@@ -13108,7 +18487,7 @@
         <v>0.25049041356732871</v>
       </c>
     </row>
-    <row r="218" spans="1:22">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>10.519596099899999</v>
       </c>
@@ -13179,7 +18558,7 @@
         <v>0.26985050008565159</v>
       </c>
     </row>
-    <row r="219" spans="1:22">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>11.9484169483</v>
       </c>
@@ -13250,7 +18629,7 @@
         <v>0.23317024099202904</v>
       </c>
     </row>
-    <row r="220" spans="1:22">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>12.1637411118</v>
       </c>
@@ -13321,7 +18700,7 @@
         <v>0.2567119970760503</v>
       </c>
     </row>
-    <row r="221" spans="1:22">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>13.5452570915</v>
       </c>
@@ -13392,7 +18771,7 @@
         <v>0.35325203054980603</v>
       </c>
     </row>
-    <row r="222" spans="1:22">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>13.804173946400001</v>
       </c>
@@ -13463,7 +18842,7 @@
         <v>0.32513200992030855</v>
       </c>
     </row>
-    <row r="223" spans="1:22">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>15.1552989483</v>
       </c>
@@ -13534,7 +18913,7 @@
         <v>0.30455173932267982</v>
       </c>
     </row>
-    <row r="224" spans="1:22">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>15.687566995599999</v>
       </c>
@@ -13605,7 +18984,7 @@
         <v>0.41474979994579342</v>
       </c>
     </row>
-    <row r="225" spans="1:22">
+    <row r="225" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>51.838423013700002</v>
       </c>
@@ -13676,7 +19055,7 @@
         <v>10.315677491783912</v>
       </c>
     </row>
-    <row r="226" spans="1:22">
+    <row r="226" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>56.210463046999998</v>
       </c>
@@ -13747,7 +19126,7 @@
         <v>9.6074776113001743</v>
       </c>
     </row>
-    <row r="227" spans="1:22">
+    <row r="227" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>81.533140897799996</v>
       </c>
@@ -13818,7 +19197,7 @@
         <v>6.6578087407532713</v>
       </c>
     </row>
-    <row r="228" spans="1:22">
+    <row r="228" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>90.292722940399997</v>
       </c>
@@ -13889,7 +19268,7 @@
         <v>4.5643777980826501</v>
       </c>
     </row>
-    <row r="229" spans="1:22">
+    <row r="229" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>96.564846038799999</v>
       </c>
@@ -13960,7 +19339,7 @@
         <v>4.0405951070780262</v>
       </c>
     </row>
-    <row r="230" spans="1:22">
+    <row r="230" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>96.613598108299996</v>
       </c>
@@ -14031,7 +19410,7 @@
         <v>3.879448791747405</v>
       </c>
     </row>
-    <row r="231" spans="1:22">
+    <row r="231" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>98.371829986600005</v>
       </c>
@@ -14102,7 +19481,7 @@
         <v>3.4979128178896</v>
       </c>
     </row>
-    <row r="232" spans="1:22">
+    <row r="232" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>100.812365055</v>
       </c>
@@ -14173,7 +19552,7 @@
         <v>3.2416959718135638</v>
       </c>
     </row>
-    <row r="233" spans="1:22">
+    <row r="233" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>102.035779953</v>
       </c>
@@ -14244,7 +19623,7 @@
         <v>3.0748237082534642</v>
       </c>
     </row>
-    <row r="234" spans="1:22">
+    <row r="234" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>103.258691072</v>
       </c>
@@ -14315,7 +19694,7 @@
         <v>2.8244720191557438</v>
       </c>
     </row>
-    <row r="235" spans="1:22">
+    <row r="235" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>104.408056974</v>
       </c>
@@ -14386,7 +19765,7 @@
         <v>2.9446884553711214</v>
       </c>
     </row>
-    <row r="236" spans="1:22">
+    <row r="236" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>105.64025712</v>
       </c>
@@ -14457,7 +19836,7 @@
         <v>3.0120201017246506</v>
       </c>
     </row>
-    <row r="237" spans="1:22">
+    <row r="237" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>106.188588142</v>
       </c>
@@ -14528,12 +19907,24 @@
         <v>3.0525809015893839</v>
       </c>
     </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100238CFAA66E948D46BA6CA56EF43C79AB" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8fb5c5c5058e994cbd0e4f24e2ab5502">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e9109049-0363-482b-b0c9-9f1bfc19c944" xmlns:ns3="f34a3e16-dc6f-44a9-9ee2-ed21c0344465" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6cce39831b75ed6a80ad8da7cd897b06" ns2:_="" ns3:_="">
     <xsd:import namespace="e9109049-0363-482b-b0c9-9f1bfc19c944"/>
@@ -14712,7 +20103,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -14721,20 +20112,46 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49C469D3-F5E2-4231-9084-AF2D0C50E843}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13C823EB-E994-4A75-8804-772C70DFEE8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="e9109049-0363-482b-b0c9-9f1bfc19c944"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f34a3e16-dc6f-44a9-9ee2-ed21c0344465"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{365A30BF-1CBA-4C12-949B-C0FF5A0C33B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49C469D3-F5E2-4231-9084-AF2D0C50E843}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e9109049-0363-482b-b0c9-9f1bfc19c944"/>
+    <ds:schemaRef ds:uri="f34a3e16-dc6f-44a9-9ee2-ed21c0344465"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13C823EB-E994-4A75-8804-772C70DFEE8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{365A30BF-1CBA-4C12-949B-C0FF5A0C33B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>